--- a/python/Python_Script/all_policy/Anti-phishing.xlsx
+++ b/python/Python_Script/all_policy/Anti-phishing.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,58 +457,207 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Spoof intelligence</t>
+          <t>Phishing threshold</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>1 - Standard</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>If the message is detected as spoof by spoof intelligence</t>
+          <t>User impersonation protection</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Move the message to the recipients' Junk Email folders</t>
+          <t>Off - 0 sender(s) specified</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>First contact safety tip</t>
+          <t>Domain impersonation protection</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Off for owned domains</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Off - 0 domain(s) specified</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unauthenticated senders symbol (?) for spoof</t>
+          <t>Trusted impersonated senders and domains</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Mailbox intelligence</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mailbox intelligence for impersonations</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Off (Mailbox intelligence must be turned on to access this)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Spoof intelligence</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>If a message is detected as user impersonation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>If a message is detected as domain impersonation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>If Mailbox Intelligence detects an impersonated user</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>If the message is detected as spoof by spoof intelligence</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Move the message to the recipients' Junk Email folders</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>First contact safety tip</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>User impersonation safety tip</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Domain impersonation safety tip</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Unusual characters safety tip</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Unauthenticated senders symbol (?) for spoof</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Show "via" tag</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>On</t>
         </is>
@@ -525,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,63 +697,212 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Spoof intelligence</t>
+          <t>Phishing threshold</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>1 - Standard</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>If the message is detected as spoof by spoof intelligence</t>
+          <t>User impersonation protection</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quarantine the message</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DefaultFullAccessPolicy</t>
+          <t>Off - 0 sender(s) specified</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>First contact safety tip</t>
+          <t>Domain impersonation protection</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off for owned domains</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Off - 0 domain(s) specified</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unauthenticated senders symbol (?) for spoof</t>
+          <t>Trusted impersonated senders and domains</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Mailbox intelligence</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mailbox intelligence for impersonations</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Off (Mailbox intelligence must be turned on to access this)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Spoof intelligence</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>If a message is detected as user impersonation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>If a message is detected as domain impersonation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>If Mailbox Intelligence detects an impersonated user</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>If the message is detected as spoof by spoof intelligence</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Quarantine the message</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DefaultFullAccessPolicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>First contact safety tip</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>User impersonation safety tip</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Domain impersonation safety tip</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Unusual characters safety tip</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Unauthenticated senders symbol (?) for spoof</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Show "via" tag</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>On</t>
         </is>
@@ -621,7 +919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,58 +930,207 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Spoof intelligence</t>
+          <t>Phishing threshold</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>1 - Standard</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>If the message is detected as spoof by spoof intelligence</t>
+          <t>User impersonation protection</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Move the message to the recipients' Junk Email folders</t>
+          <t>Off - 0 sender(s) specified</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>First contact safety tip</t>
+          <t>Domain impersonation protection</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Off for owned domains</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Off - 0 domain(s) specified</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unauthenticated senders symbol (?) for spoof</t>
+          <t>Trusted impersonated senders and domains</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Mailbox intelligence</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mailbox intelligence for impersonations</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Off (Mailbox intelligence must be turned on to access this)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Spoof intelligence</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>If a message is detected as user impersonation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>If a message is detected as domain impersonation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>If Mailbox Intelligence detects an impersonated user</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Don't apply any action</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>If the message is detected as spoof by spoof intelligence</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Move the message to the recipients' Junk Email folders</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>First contact safety tip</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>User impersonation safety tip</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Domain impersonation safety tip</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Unusual characters safety tip</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Unauthenticated senders symbol (?) for spoof</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Show "via" tag</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>On</t>
         </is>
